--- a/User Stories and Tasks-Rev2.xlsx
+++ b/User Stories and Tasks-Rev2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkchun\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21108" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21105" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Status</t>
   </si>
@@ -128,9 +123,6 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>As a player I want to select "View Stats" to see my score data and compare it with others</t>
-  </si>
-  <si>
     <t>As a player I would like to select "Play Game" from the menu so I can access battle mode</t>
   </si>
   <si>
@@ -140,17 +132,26 @@
     <t>Design play mode option</t>
   </si>
   <si>
-    <t>As a player I want to be able to see my battle options in order to  select a dice roll option</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to roll dice and defeat a monster to progress to next level and earn points</t>
+    <t>As a player I want to select "View Ranking" to see my statistics so I can compare it with others</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to see my battle options in order to select a dice roll option</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to attack a monster by rolling dice so I can defeat the monster</t>
+  </si>
+  <si>
+    <t>As a player I would like to be able to defeat monsters so that I can progress to the next level</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +163,20 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,62 +292,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,32 +631,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J13:J14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,370 +682,401 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18"/>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="27"/>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="26">
+        <v>13</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="G21" s="6">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="6">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="16">
-        <v>7</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="19">
-        <v>8</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="16">
-        <v>9</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="9">
-        <v>10</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="6">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="9">
-        <v>14</v>
-      </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:A19"/>
+  <mergeCells count="7">
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A21:H24"/>
+    <mergeCell ref="A23:H26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
